--- a/data/malingas.xlsx
+++ b/data/malingas.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F2" t="n">
         <v>14</v>
@@ -536,7 +536,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
@@ -570,7 +570,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F4" t="n">
         <v>14</v>
@@ -604,7 +604,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
         <v>15</v>
@@ -706,7 +706,7 @@
         <v>22</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
@@ -740,7 +740,7 @@
         <v>24</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F10" t="n">
         <v>14</v>
@@ -808,7 +808,7 @@
         <v>33</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
@@ -829,32 +829,32 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ROMAN GALECIO MARITZA DEL PILAR</t>
+          <t>PIÑIN MACHUCA GIANCARLO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -863,32 +863,32 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUIDIAS FRIAS MELISSA VICTORIA</t>
+          <t>ROMAN GALECIO MARITZA DEL PILAR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E13" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -897,68 +897,102 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>URRIOLA ARISMENDIZ INGRID MARYURI</t>
+          <t>RUIDIAS FRIAS MELISSA VICTORIA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D14" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
+          <t>URRIOLA ARISMENDIZ INGRID MARYURI</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>26</v>
+      </c>
+      <c r="D15" t="n">
+        <v>26</v>
+      </c>
+      <c r="E15" t="n">
+        <v>35</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13</v>
+      </c>
+      <c r="G15" t="n">
+        <v>18</v>
+      </c>
+      <c r="H15" t="n">
+        <v>16</v>
+      </c>
+      <c r="I15" t="n">
+        <v>27</v>
+      </c>
+      <c r="J15" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
           <t>VEGA ROBLEDO FERNANDO ERNESTO</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>8</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C16" t="n">
         <v>15</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>25</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="E16" t="n">
+        <v>23</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>25</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>23</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>13</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J16" t="n">
         <v>27</v>
       </c>
     </row>
@@ -973,7 +1007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1052,7 +1086,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1098,7 +1132,11 @@
           <t>21</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>12</t>
@@ -1148,7 +1186,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1198,7 +1236,11 @@
           <t>30</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
@@ -1242,7 +1284,11 @@
           <t>25</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
@@ -1282,7 +1328,11 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>15</t>
@@ -1322,7 +1372,11 @@
           <t>22</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>10</t>
@@ -1370,7 +1424,11 @@
           <t>24</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
@@ -1406,7 +1464,11 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>14</t>
@@ -1454,7 +1516,11 @@
           <t>33</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>13</t>
@@ -1480,87 +1546,67 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ROMAN GALECIO MARITZA DEL PILAR</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
+          <t>PIÑIN MACHUCA GIANCARLO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUIDIAS FRIAS MELISSA VICTORIA</t>
+          <t>ROMAN GALECIO MARITZA DEL PILAR</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1568,90 +1614,142 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>URRIOLA ARISMENDIZ INGRID MARYURI</t>
+          <t>RUIDIAS FRIAS MELISSA VICTORIA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
+          <t>URRIOLA ARISMENDIZ INGRID MARYURI</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
           <t>VEGA ROBLEDO FERNANDO ERNESTO</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>27</t>
         </is>
